--- a/room_schedule_Computer_B-202.xlsx
+++ b/room_schedule_Computer_B-202.xlsx
@@ -14,7 +14,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
+  <si>
+    <t>B-202</t>
+  </si>
+  <si>
+    <t>TEB</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>SPOS</t>
+  </si>
+  <si>
+    <t>PRR</t>
+  </si>
+  <si>
+    <t>DAA</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>FMI</t>
+  </si>
+  <si>
+    <t>VKK</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>ES-IOT</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>NSS</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>VVM</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
   <si>
     <t>Time</t>
   </si>
@@ -53,8 +128,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,12 +152,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0BFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -104,9 +205,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,153 +522,789 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="J11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="C13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="H19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="128">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="J33:K34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
